--- a/EN.xlsx
+++ b/EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3235CC8-A266-4FC6-99C2-0B4FAD7B7006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CF435B-85B2-4D68-9969-6129D3CCBE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="4350" windowWidth="19950" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="51840" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="775">
   <si>
     <t>inherit</t>
   </si>
@@ -2110,21 +2110,6 @@
     <t>silnik bazy danych</t>
   </si>
   <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF929191"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>database administrator</t>
-    </r>
-  </si>
-  <si>
     <t>administrator baz danych</t>
   </si>
   <si>
@@ -2328,12 +2313,717 @@
   <si>
     <t>english-polish</t>
   </si>
+  <si>
+    <t>access level</t>
+  </si>
+  <si>
+    <t>accessible remotely</t>
+  </si>
+  <si>
+    <t>administer database</t>
+  </si>
+  <si>
+    <t>allocate resources</t>
+  </si>
+  <si>
+    <t>archived data</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>authentication</t>
+  </si>
+  <si>
+    <t>authorization</t>
+  </si>
+  <si>
+    <t>baseband system</t>
+  </si>
+  <si>
+    <t>boost effectiveness</t>
+  </si>
+  <si>
+    <t>broadband system</t>
+  </si>
+  <si>
+    <t>business intelligence (BI)</t>
+  </si>
+  <si>
+    <t>central processing unit (CPU)</t>
+  </si>
+  <si>
+    <t>click-through</t>
+  </si>
+  <si>
+    <t>client/server network</t>
+  </si>
+  <si>
+    <t>closed loop</t>
+  </si>
+  <si>
+    <t>cloud computing platform</t>
+  </si>
+  <si>
+    <t>cloud infrastructure</t>
+  </si>
+  <si>
+    <t>cloud-based DBMS</t>
+  </si>
+  <si>
+    <t>coaxial cable</t>
+  </si>
+  <si>
+    <t>common user network</t>
+  </si>
+  <si>
+    <t>communication link</t>
+  </si>
+  <si>
+    <t>communication path</t>
+  </si>
+  <si>
+    <t>communication protocol</t>
+  </si>
+  <si>
+    <t>comprehensive real-time view</t>
+  </si>
+  <si>
+    <t>conduct analysis</t>
+  </si>
+  <si>
+    <t>confidentiality</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>convert (something to something)</t>
+  </si>
+  <si>
+    <t>copper wire</t>
+  </si>
+  <si>
+    <t>cost-benefit analysis (CBA)</t>
+  </si>
+  <si>
+    <t>customize</t>
+  </si>
+  <si>
+    <t>data analytics</t>
+  </si>
+  <si>
+    <t>data loading</t>
+  </si>
+  <si>
+    <t>data processing</t>
+  </si>
+  <si>
+    <t>data profiling</t>
+  </si>
+  <si>
+    <t>data recipient</t>
+  </si>
+  <si>
+    <t>data recovery</t>
+  </si>
+  <si>
+    <t>data scrubbing</t>
+  </si>
+  <si>
+    <t>data storage</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>domain integrity constraints</t>
+  </si>
+  <si>
+    <t>drill-across</t>
+  </si>
+  <si>
+    <t>drill-down</t>
+  </si>
+  <si>
+    <t>efficient</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>encrypt</t>
+  </si>
+  <si>
+    <t>encryption</t>
+  </si>
+  <si>
+    <t>enhancement</t>
+  </si>
+  <si>
+    <t>enterprise data warehouse</t>
+  </si>
+  <si>
+    <t>evaluate</t>
+  </si>
+  <si>
+    <t>evolve</t>
+  </si>
+  <si>
+    <t>executive reporting tool</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>fibre-optic cable</t>
+  </si>
+  <si>
+    <t>forecast</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>hardware</t>
+  </si>
+  <si>
+    <t>high-speed network</t>
+  </si>
+  <si>
+    <t>high-throughput access</t>
+  </si>
+  <si>
+    <t>host computer</t>
+  </si>
+  <si>
+    <t>hub</t>
+  </si>
+  <si>
+    <t>IT infrastructure</t>
+  </si>
+  <si>
+    <t>local area network (LAN)</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>master server</t>
+  </si>
+  <si>
+    <t>mobile BI tools</t>
+  </si>
+  <si>
+    <t>open-source platform</t>
+  </si>
+  <si>
+    <t>output file</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>peer-to-peer (P2P) network</t>
+  </si>
+  <si>
+    <t>performance</t>
+  </si>
+  <si>
+    <t>plant and equipment</t>
+  </si>
+  <si>
+    <t>prioritize</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>profitability</t>
+  </si>
+  <si>
+    <t>provide information</t>
+  </si>
+  <si>
+    <t>query database</t>
+  </si>
+  <si>
+    <t>raw data</t>
+  </si>
+  <si>
+    <t>real-time streaming</t>
+  </si>
+  <si>
+    <t>remote connection</t>
+  </si>
+  <si>
+    <t>replicate</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>run a query</t>
+  </si>
+  <si>
+    <t>run in parallel</t>
+  </si>
+  <si>
+    <t>scope (of network)</t>
+  </si>
+  <si>
+    <t>scorecard</t>
+  </si>
+  <si>
+    <t>self-service BI (SSBI)</t>
+  </si>
+  <si>
+    <t>sending device</t>
+  </si>
+  <si>
+    <t>slave server</t>
+  </si>
+  <si>
+    <t>slew of data</t>
+  </si>
+  <si>
+    <t>slice-and-dice data</t>
+  </si>
+  <si>
+    <t>slice-and-dice pivot table analysis</t>
+  </si>
+  <si>
+    <t>snowflake schema</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>software tool</t>
+  </si>
+  <si>
+    <t>spreadsheet</t>
+  </si>
+  <si>
+    <t>star schema</t>
+  </si>
+  <si>
+    <t>statistical analysis</t>
+  </si>
+  <si>
+    <t>storage resources</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stream data</t>
+  </si>
+  <si>
+    <t>structured data</t>
+  </si>
+  <si>
+    <t>subject-oriented</t>
+  </si>
+  <si>
+    <t>tablespace</t>
+  </si>
+  <si>
+    <t>target database</t>
+  </si>
+  <si>
+    <t>temporary data store</t>
+  </si>
+  <si>
+    <t>time-variant</t>
+  </si>
+  <si>
+    <t>transmit information</t>
+  </si>
+  <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>value analysis</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>what-if analysis</t>
+  </si>
+  <si>
+    <t>wireless wide area network (WAN)</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>poziom dostępu</t>
+  </si>
+  <si>
+    <t>dostępny zdalnie</t>
+  </si>
+  <si>
+    <t>administrować bazą danych</t>
+  </si>
+  <si>
+    <t>alokować zasoby</t>
+  </si>
+  <si>
+    <t>dane zarchiwizowane</t>
+  </si>
+  <si>
+    <t>aktywa</t>
+  </si>
+  <si>
+    <t>uwierzytelnienie / poświadczenie</t>
+  </si>
+  <si>
+    <t>upoważnienie / uprawnienie / autoryzacja</t>
+  </si>
+  <si>
+    <t>system transmisji w paśmie podstawowym</t>
+  </si>
+  <si>
+    <t>zwiększać efektywność</t>
+  </si>
+  <si>
+    <t>system szerokopasmowy</t>
+  </si>
+  <si>
+    <t>analityka biznesowa / business intelligence</t>
+  </si>
+  <si>
+    <t>procesor</t>
+  </si>
+  <si>
+    <t>klikalność</t>
+  </si>
+  <si>
+    <t>sieć typu klient – serwer</t>
+  </si>
+  <si>
+    <t>zamknięta pętla</t>
+  </si>
+  <si>
+    <t>platforma oparta na chmurze obliczeniowej</t>
+  </si>
+  <si>
+    <t>infrastruktura chmury</t>
+  </si>
+  <si>
+    <t>system zarządzania bazą danych w chmurze</t>
+  </si>
+  <si>
+    <t>kabel koncentryczny</t>
+  </si>
+  <si>
+    <t>sieć ogólnodostępna</t>
+  </si>
+  <si>
+    <t>łącze komunikacyjne</t>
+  </si>
+  <si>
+    <t>ścieżka komunikacyjna</t>
+  </si>
+  <si>
+    <t>protokół komunikacyjny</t>
+  </si>
+  <si>
+    <t>pełny wgląd w czasie rzeczywistym</t>
+  </si>
+  <si>
+    <t>przeprowadzić analizę</t>
+  </si>
+  <si>
+    <t>poufność</t>
+  </si>
+  <si>
+    <t>zawartość</t>
+  </si>
+  <si>
+    <t>przekształcać (coś w coś)</t>
+  </si>
+  <si>
+    <t>miedziany przewód</t>
+  </si>
+  <si>
+    <t>analiza kosztów i korzyści</t>
+  </si>
+  <si>
+    <t>dostosowywać do potrzeb</t>
+  </si>
+  <si>
+    <t>analityka danych</t>
+  </si>
+  <si>
+    <t>ładowanie danych</t>
+  </si>
+  <si>
+    <t>przetwarzanie danych</t>
+  </si>
+  <si>
+    <t>profilowanie danych</t>
+  </si>
+  <si>
+    <t>odbiorca danych</t>
+  </si>
+  <si>
+    <t>odzyskiwanie danych</t>
+  </si>
+  <si>
+    <t>oczyszczanie danych</t>
+  </si>
+  <si>
+    <t>przechowywanie danych</t>
+  </si>
+  <si>
+    <t>urządzenie</t>
+  </si>
+  <si>
+    <t>więzy integralności domeny</t>
+  </si>
+  <si>
+    <t>drążenie w poprzek</t>
+  </si>
+  <si>
+    <t>drążenie w głąb / drążenie w dół</t>
+  </si>
+  <si>
+    <t>wydajny / sprawny / efektywny</t>
+  </si>
+  <si>
+    <t>umożliwiać</t>
+  </si>
+  <si>
+    <t>zaszyfrować</t>
+  </si>
+  <si>
+    <t>szyfrowanie</t>
+  </si>
+  <si>
+    <t>poprawa / zwiększenie</t>
+  </si>
+  <si>
+    <t>korporacyjna hurtownia danych</t>
+  </si>
+  <si>
+    <t>szacować</t>
+  </si>
+  <si>
+    <t>rozwijać się / ewoluować</t>
+  </si>
+  <si>
+    <t>narzędzie do raportowania dla kadry zarządzającej</t>
+  </si>
+  <si>
+    <t>usterka/błąd</t>
+  </si>
+  <si>
+    <t>kabel światłowodowy</t>
+  </si>
+  <si>
+    <t>pole</t>
+  </si>
+  <si>
+    <t>prognoza</t>
+  </si>
+  <si>
+    <t>framework / struktura / szkielet</t>
+  </si>
+  <si>
+    <t>oszustwo</t>
+  </si>
+  <si>
+    <t>sprzęt</t>
+  </si>
+  <si>
+    <t>szybka sieć / sieć o dużej szybkości transmisji danych</t>
+  </si>
+  <si>
+    <t>dostęp o dużej przepustowości</t>
+  </si>
+  <si>
+    <t>komputer główny / komputer macierzysty</t>
+  </si>
+  <si>
+    <t>koncentrator</t>
+  </si>
+  <si>
+    <t>infrastruktura informatyczna</t>
+  </si>
+  <si>
+    <t>lokalna sieć komputerowa</t>
+  </si>
+  <si>
+    <t>utrzymanie</t>
+  </si>
+  <si>
+    <t>serwer główny</t>
+  </si>
+  <si>
+    <t>narzędzia do analizy business intelligence na urządzeniach mobilnych</t>
+  </si>
+  <si>
+    <t>platforma open source / platforma otwartoźródłowa</t>
+  </si>
+  <si>
+    <t>plik wyjściowy</t>
+  </si>
+  <si>
+    <t>wzorzec</t>
+  </si>
+  <si>
+    <t>sieć równorzędna / sieć typu „każdy z każdym”</t>
+  </si>
+  <si>
+    <t>wydajność</t>
+  </si>
+  <si>
+    <t>maszyny i urządzenia</t>
+  </si>
+  <si>
+    <t>nadawać priorytet</t>
+  </si>
+  <si>
+    <t>przetwarzać</t>
+  </si>
+  <si>
+    <t>zyskowność</t>
+  </si>
+  <si>
+    <t>dostarczać informacji</t>
+  </si>
+  <si>
+    <t>surowe dane</t>
+  </si>
+  <si>
+    <t>strumieniowanie / przesyłanie / transmisja danych w czasie rzeczywistym</t>
+  </si>
+  <si>
+    <t>rekord / zapis</t>
+  </si>
+  <si>
+    <t>połączenie zdalne</t>
+  </si>
+  <si>
+    <t>powielać / replikować</t>
+  </si>
+  <si>
+    <t>kierować</t>
+  </si>
+  <si>
+    <t>wiersz</t>
+  </si>
+  <si>
+    <t>uruchomić zapytanie</t>
+  </si>
+  <si>
+    <t>uruchamiać równolegle</t>
+  </si>
+  <si>
+    <t>zasięg (sieci)</t>
+  </si>
+  <si>
+    <t>karta wyników</t>
+  </si>
+  <si>
+    <t>samodzielnie przeprowadzana analiza business intelligence</t>
+  </si>
+  <si>
+    <t>urządzenie nadawcze</t>
+  </si>
+  <si>
+    <t>serwer zapasowy</t>
+  </si>
+  <si>
+    <t>masa danych / ogromne ilości danych</t>
+  </si>
+  <si>
+    <t>analizować dane w dowolnych przekrojach i rzutach</t>
+  </si>
+  <si>
+    <t>analiza danych w dowolnych przekrojach i rzutach za pomocą tabeli przestawnej</t>
+  </si>
+  <si>
+    <t>schemat płatka śniegu</t>
+  </si>
+  <si>
+    <t>oprogramowanie</t>
+  </si>
+  <si>
+    <t>narzędzie programowe</t>
+  </si>
+  <si>
+    <t>arkusz kalkulacyjny</t>
+  </si>
+  <si>
+    <t>schemat gwiazdy</t>
+  </si>
+  <si>
+    <t>analiza statystyczna</t>
+  </si>
+  <si>
+    <t>zasoby pamięci</t>
+  </si>
+  <si>
+    <t>przechowywać / składować</t>
+  </si>
+  <si>
+    <t>strumieniować dane</t>
+  </si>
+  <si>
+    <t>dane ustrukturyzowane</t>
+  </si>
+  <si>
+    <t>tematyczny</t>
+  </si>
+  <si>
+    <t>obszar tabeli</t>
+  </si>
+  <si>
+    <t>docelowa baza danych</t>
+  </si>
+  <si>
+    <t>tymczasowe miejsce przechowywania danych</t>
+  </si>
+  <si>
+    <t>zmienny w czasie</t>
+  </si>
+  <si>
+    <t>przesyłać informacje</t>
+  </si>
+  <si>
+    <t>narzędzie</t>
+  </si>
+  <si>
+    <t>analiza wartości</t>
+  </si>
+  <si>
+    <t>prędkość</t>
+  </si>
+  <si>
+    <t>analiza typu „co jeśli?”</t>
+  </si>
+  <si>
+    <t>rozległa sieć komputerowa</t>
+  </si>
+  <si>
+    <t>klient sieci bezprzewodowej</t>
+  </si>
+  <si>
+    <t>database administrator</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2350,13 +3040,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF929191"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -2700,10 +3383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="A394" sqref="A394:D394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2717,13 +3400,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5257,255 +5940,1461 @@
         <v>487</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>488</v>
+        <v>774</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2" t="s">
-        <v>537</v>
-      </c>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B305" s="2"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B306" s="2"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B307" s="2"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B313" s="2"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B314" s="2"/>
+      <c r="C314" s="2"/>
+      <c r="D314" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B315" s="2"/>
+      <c r="C315" s="2"/>
+      <c r="D315" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B317" s="2"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B319" s="2"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B320" s="2"/>
+      <c r="C320" s="2"/>
+      <c r="D320" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B321" s="2"/>
+      <c r="C321" s="2"/>
+      <c r="D321" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B322" s="2"/>
+      <c r="C322" s="2"/>
+      <c r="D322" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B323" s="2"/>
+      <c r="C323" s="2"/>
+      <c r="D323" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B324" s="2"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B325" s="2"/>
+      <c r="C325" s="2"/>
+      <c r="D325" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B326" s="2"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B331" s="2"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B332" s="2"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B334" s="2"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B335" s="2"/>
+      <c r="C335" s="2"/>
+      <c r="D335" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B336" s="2"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B338" s="2"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B339" s="2"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B340" s="2"/>
+      <c r="C340" s="2"/>
+      <c r="D340" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B341" s="2"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B342" s="2"/>
+      <c r="C342" s="2"/>
+      <c r="D342" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B345" s="2"/>
+      <c r="C345" s="2"/>
+      <c r="D345" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B346" s="2"/>
+      <c r="C346" s="2"/>
+      <c r="D346" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B347" s="2"/>
+      <c r="C347" s="2"/>
+      <c r="D347" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B348" s="2"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B349" s="2"/>
+      <c r="C349" s="2"/>
+      <c r="D349" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B350" s="2"/>
+      <c r="C350" s="2"/>
+      <c r="D350" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B351" s="2"/>
+      <c r="C351" s="2"/>
+      <c r="D351" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B352" s="2"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B353" s="2"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B354" s="2"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B355" s="2"/>
+      <c r="C355" s="2"/>
+      <c r="D355" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B356" s="2"/>
+      <c r="C356" s="2"/>
+      <c r="D356" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B357" s="2"/>
+      <c r="C357" s="2"/>
+      <c r="D357" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B358" s="2"/>
+      <c r="C358" s="2"/>
+      <c r="D358" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B359" s="2"/>
+      <c r="C359" s="2"/>
+      <c r="D359" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B360" s="2"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B361" s="2"/>
+      <c r="C361" s="2"/>
+      <c r="D361" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B365" s="2"/>
+      <c r="C365" s="2"/>
+      <c r="D365" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B366" s="2"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B367" s="2"/>
+      <c r="C367" s="2"/>
+      <c r="D367" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B369" s="2"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B371" s="2"/>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B372" s="2"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B373" s="2"/>
+      <c r="C373" s="2"/>
+      <c r="D373" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B374" s="2"/>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B375" s="2"/>
+      <c r="C375" s="2"/>
+      <c r="D375" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B376" s="2"/>
+      <c r="C376" s="2"/>
+      <c r="D376" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B377" s="2"/>
+      <c r="C377" s="2"/>
+      <c r="D377" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B378" s="2"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B379" s="2"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B380" s="2"/>
+      <c r="C380" s="2"/>
+      <c r="D380" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B381" s="2"/>
+      <c r="C381" s="2"/>
+      <c r="D381" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B382" s="2"/>
+      <c r="C382" s="2"/>
+      <c r="D382" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B383" s="2"/>
+      <c r="C383" s="2"/>
+      <c r="D383" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B384" s="2"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B385" s="2"/>
+      <c r="C385" s="2"/>
+      <c r="D385" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B386" s="2"/>
+      <c r="C386" s="2"/>
+      <c r="D386" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B387" s="2"/>
+      <c r="C387" s="2"/>
+      <c r="D387" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B388" s="2"/>
+      <c r="C388" s="2"/>
+      <c r="D388" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B390" s="2"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B393" s="2"/>
+      <c r="C393" s="2"/>
+      <c r="D393" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" s="2"/>
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>

--- a/EN.xlsx
+++ b/EN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CF435B-85B2-4D68-9969-6129D3CCBE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E0A245-1CE0-4189-A750-621288D8397F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="51840" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13710" yWindow="1275" windowWidth="19950" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="810">
   <si>
     <t>inherit</t>
   </si>
@@ -3017,6 +3017,171 @@
   </si>
   <si>
     <t>database administrator</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chmura </t>
+  </si>
+  <si>
+    <t>internet protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protokół internetowy </t>
+  </si>
+  <si>
+    <t>adapter sieciowy</t>
+  </si>
+  <si>
+    <t>network adapter</t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gniazdo </t>
+  </si>
+  <si>
+    <t>wide area network</t>
+  </si>
+  <si>
+    <t>file transfer protocol</t>
+  </si>
+  <si>
+    <r>
+      <t>protokół przesyłania plików</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>cabling</t>
+  </si>
+  <si>
+    <r>
+      <t>okablowanie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>wired connection</t>
+  </si>
+  <si>
+    <t>połączenie przewodowe</t>
+  </si>
+  <si>
+    <t>unshielded twisted pair cable</t>
+  </si>
+  <si>
+    <t>skrętka nieekranowana</t>
+  </si>
+  <si>
+    <t>shielded twisted pair cable</t>
+  </si>
+  <si>
+    <t>skrętka ekranowana</t>
+  </si>
+  <si>
+    <r>
+      <t>pasmo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>initial settings</t>
+  </si>
+  <si>
+    <t>ustawienia początkowe</t>
+  </si>
+  <si>
+    <t>zdalne zarządzanie</t>
+  </si>
+  <si>
+    <t>remote management</t>
+  </si>
+  <si>
+    <t>system crash</t>
+  </si>
+  <si>
+    <t>awaria systemu</t>
+  </si>
+  <si>
+    <t>connectivity</t>
+  </si>
+  <si>
+    <r>
+      <t>łączność</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>skonfigurować urządzenia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>distant network</t>
+  </si>
+  <si>
+    <t>a set of routes</t>
+  </si>
+  <si>
+    <t>zestaw tras</t>
+  </si>
+  <si>
+    <t>odległa sieć</t>
+  </si>
+  <si>
+    <t>bandwidth</t>
+  </si>
+  <si>
+    <t>to configure devices</t>
   </si>
 </sst>
 </file>
@@ -3383,10 +3548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E395"/>
+  <dimension ref="A1:E415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="A394" sqref="A394:D394"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="D392" sqref="D392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7391,13 +7556,176 @@
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="2"/>
-      <c r="B395" s="2"/>
+      <c r="A395" s="2" t="s">
+        <v>775</v>
+      </c>
       <c r="C395" s="2"/>
-      <c r="D395" s="2"/>
+      <c r="D395" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A401" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A402" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A408" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A412" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A413" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>807</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>